--- a/va_facility_data_2025-02-20/Indianapolis VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Indianapolis%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Indianapolis VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Indianapolis%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb64471baa105417d9d147289faa435e9"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rc854733375e64ff4944427c118acf213"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3bf286aa085c4f1b8006d64561a006b7"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rfce5b8750ca84c06880f8df5c1b35fd5"/>
   </x:sheets>
 </x:workbook>
 </file>
